--- a/doc/バグ&障害管理/インタープリタ/回帰テスト/回帰テスト項目.xlsx
+++ b/doc/バグ&障害管理/インタープリタ/回帰テスト/回帰テスト項目.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toru Ikeda\workspace_github\BeGIC\doc\バグ&amp;障害管理\インタープリタ\回帰テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\洸人\Desktop\びじっく\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="9264" windowHeight="7536"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="9270" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="回帰テスト" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -906,6 +906,89 @@
   </si>
   <si>
     <t>RV000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RC000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop文</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS000019</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1245,32 +1328,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1295,7 +1378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1306,7 +1389,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1400,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1411,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1422,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1338,7 +1433,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1444,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1455,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1466,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1477,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1378,7 +1488,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1386,7 +1499,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1394,7 +1510,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -1402,7 +1521,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1532,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1418,7 +1543,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1426,7 +1554,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1434,7 +1565,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
@@ -1442,90 +1576,103 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1545,16 +1692,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/doc/バグ&障害管理/インタープリタ/回帰テスト/回帰テスト項目.xlsx
+++ b/doc/バグ&障害管理/インタープリタ/回帰テスト/回帰テスト項目.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\洸人\Desktop\びじっく\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Eclipse_4.6.3.app/Contents/workspace/BeGIC.git/branches/prototype/doc/バグ&amp;障害管理/インタープリタ/回帰テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="9270" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340"/>
   </bookViews>
   <sheets>
     <sheet name="回帰テスト" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0.0.0'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">回帰テスト!$A$3:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -989,6 +995,74 @@
   </si>
   <si>
     <t>RS000019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RV000003</t>
+  </si>
+  <si>
+    <t>RV000004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RG000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RG000002</t>
+  </si>
+  <si>
+    <t>RG000003</t>
+  </si>
+  <si>
+    <t>RS000020</t>
+  </si>
+  <si>
+    <t>RG000004</t>
+  </si>
+  <si>
+    <t>作ってそうなのはOK</t>
+    <rPh sb="0" eb="1">
+      <t>ツクッt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\sは不可</t>
+    <rPh sb="3" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RV000005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RV000006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数を用いた計算は不可</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モt</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フk</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1331,16 +1405,16 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1510,7 +1584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1521,7 +1595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1532,7 +1606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1543,7 +1617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -1554,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -1565,7 +1639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1576,12 +1650,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1592,7 +1669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1603,7 +1680,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
@@ -1611,7 +1691,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -1619,7 +1702,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
@@ -1627,15 +1713,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -1643,15 +1738,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
@@ -1659,20 +1763,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1692,13 +1805,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
